--- a/data/output/Pedido_Semana_08_09022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_semillas.xlsx
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>6</v>
@@ -1867,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>10</v>
@@ -2515,7 +2515,7 @@
         <v>1</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>2</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>6</v>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="C60" s="8" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Pedido_Semana_08_09022026_semillas.xlsx
+++ b/data/output/Pedido_Semana_08_09022026_semillas.xlsx
@@ -1479,7 +1479,7 @@
         <v>2</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="3" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>4</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R15" s="3" t="n">
         <v>0</v>
@@ -1803,7 +1803,7 @@
         <v>4</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="3" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>7</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" s="3" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>2</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" s="3" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="3" t="n">
         <v>0</v>
@@ -2127,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20" s="3" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>2</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21" s="3" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>2</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R25" s="3" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>4</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R28" s="3" t="n">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>2</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R29" s="3" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R36" s="3" t="n">
         <v>0</v>
@@ -3504,7 +3504,7 @@
         <v>2</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R37" s="3" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>2</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R38" s="3" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>6</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R42" s="3" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>4</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R45" s="3" t="n">
         <v>0</v>
